--- a/biology/Botanique/Liste_des_cultivars_de_tulipe/Liste_des_cultivars_de_tulipe.xlsx
+++ b/biology/Botanique/Liste_des_cultivars_de_tulipe/Liste_des_cultivars_de_tulipe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette liste comprend des cultivars de tulipe, et ne doit pas être confondu avec la liste des espèces de tulipe.
 Les cultivars de Tulipa se comptent par milliers, ce sont des hybrides d'au moins deux espèces, selon le Code international pour la nomenclature des plantes cultivées.
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>A
-Abra
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Abra
 Aby Hassan
 Ad Rem
 Addis
